--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
   <si>
     <t>Nome</t>
   </si>
@@ -43,178 +43,199 @@
     <t>JOSA</t>
   </si>
   <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>Yzzy the best ¿</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>sj pro</t>
+  </si>
+  <si>
+    <t>alm ícaro⁷⁷⁷</t>
+  </si>
+  <si>
+    <t>- ROJÎ</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Zenitsu愛</t>
+  </si>
+  <si>
+    <t>danilo</t>
+  </si>
+  <si>
+    <t>PedrinhoR14</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>5C4RF4C3</t>
+  </si>
+  <si>
+    <t>luba</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>caioba_</t>
+  </si>
+  <si>
+    <t>BRS⚔️ASHURA</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Theus Carvalho</t>
+  </si>
+  <si>
+    <t>mini.peka</t>
+  </si>
+  <si>
+    <t>kauansin777</t>
+  </si>
+  <si>
+    <t>Luiz Fernando™</t>
+  </si>
+  <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
     <t>joão3:16</t>
   </si>
   <si>
-    <t>nova</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Yzzy the best ¿</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>sj pro</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
     <t>RobaFrag</t>
   </si>
   <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>alm ícaro⁷⁷⁷</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
     <t>51 é pinga</t>
   </si>
   <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
     <t>gabriel 3$</t>
   </si>
   <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Zenitsu愛</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>danilo</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>PedrinhoR14</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>5C4RF4C3</t>
-  </si>
-  <si>
     <t>Asten Acady</t>
   </si>
   <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luba</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
     <t>ZackThunder</t>
   </si>
   <si>
-    <t>caioba_</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>BRS⚔️ASHURA</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>Theus Carvalho</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>mini.peka</t>
-  </si>
-  <si>
     <t>mathi❄️</t>
   </si>
   <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>kauansin777</t>
-  </si>
-  <si>
     <t>Gustavo Clash</t>
   </si>
   <si>
-    <t>Luiz Fernando™</t>
-  </si>
-  <si>
     <t>Razoável</t>
   </si>
   <si>
+    <t>Verificar</t>
+  </si>
+  <si>
     <t>Ok</t>
-  </si>
-  <si>
-    <t>Verificar</t>
   </si>
   <si>
     <t>Guerra Atual</t>
@@ -575,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +633,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -638,25 +659,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -664,10 +685,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -690,25 +711,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -716,19 +737,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -742,25 +763,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -768,19 +789,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -794,25 +815,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>14</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -820,25 +841,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -846,25 +867,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -872,25 +893,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -898,22 +919,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -924,13 +945,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>16</v>
@@ -950,25 +971,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
         <v>15</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -976,13 +997,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1002,22 +1023,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
       <c r="G17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1028,10 +1049,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -1054,25 +1075,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1080,13 +1101,13 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -1098,7 +1119,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1106,25 +1127,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1132,25 +1153,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>16</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1158,25 +1179,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1184,25 +1205,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1210,25 +1231,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>12</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1236,25 +1257,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1262,10 +1283,10 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -1274,10 +1295,10 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -1288,10 +1309,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -1303,10 +1324,10 @@
         <v>16</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1314,25 +1335,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1340,25 +1361,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1366,25 +1387,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1392,13 +1413,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>16</v>
@@ -1418,10 +1439,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1444,22 +1465,22 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>16</v>
@@ -1470,25 +1491,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>16</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1496,10 +1517,10 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -1508,10 +1529,10 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>16</v>
@@ -1522,19 +1543,19 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -1548,25 +1569,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <v>12</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1574,25 +1595,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1600,10 +1621,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -1626,25 +1647,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>16</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1652,25 +1673,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1678,10 +1699,10 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>16</v>
@@ -1690,13 +1711,13 @@
         <v>16</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1704,25 +1725,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1730,25 +1751,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>16</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>16</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1756,13 +1777,13 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>16</v>
@@ -1782,25 +1803,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1808,22 +1829,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>16</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48">
         <v>16</v>
@@ -1834,10 +1855,10 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1846,13 +1867,13 @@
         <v>16</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G49">
         <v>16</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1860,25 +1881,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1886,25 +1907,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1912,25 +1933,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1938,22 +1959,22 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>16</v>
       </c>
       <c r="G53">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53">
         <v>16</v>
@@ -1964,10 +1985,10 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -1979,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1990,25 +2011,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2016,25 +2037,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D56">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2042,25 +2063,207 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>16</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>16</v>
+      </c>
+      <c r="G58">
+        <v>16</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>16</v>
+      </c>
+      <c r="G59">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>16</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
         <v>67</v>
       </c>
-      <c r="D57">
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>16</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
         <v>8</v>
       </c>
-      <c r="E57">
-        <v>16</v>
-      </c>
-      <c r="F57">
-        <v>12</v>
-      </c>
-      <c r="G57">
-        <v>13</v>
-      </c>
-      <c r="H57">
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
         <v>10</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -61,172 +61,172 @@
     <t>- ROJÎ</t>
   </si>
   <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Zenitsu愛</t>
+  </si>
+  <si>
+    <t>danilo</t>
+  </si>
+  <si>
+    <t>PedrinhoR14</t>
+  </si>
+  <si>
+    <t>5C4RF4C3</t>
+  </si>
+  <si>
+    <t>luba</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>caioba_</t>
+  </si>
+  <si>
+    <t>BRS⚔️ASHURA</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Theus Carvalho</t>
+  </si>
+  <si>
+    <t>mini.peka</t>
+  </si>
+  <si>
+    <t>kauansin777</t>
+  </si>
+  <si>
+    <t>Luiz Fernando™</t>
+  </si>
+  <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
     <t>Alvaro</t>
   </si>
   <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Zenitsu愛</t>
-  </si>
-  <si>
-    <t>danilo</t>
-  </si>
-  <si>
-    <t>PedrinhoR14</t>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
   </si>
   <si>
     <t>Dockz</t>
   </si>
   <si>
-    <t>5C4RF4C3</t>
-  </si>
-  <si>
-    <t>luba</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>caioba_</t>
-  </si>
-  <si>
-    <t>BRS⚔️ASHURA</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>Theus Carvalho</t>
-  </si>
-  <si>
-    <t>mini.peka</t>
-  </si>
-  <si>
-    <t>kauansin777</t>
-  </si>
-  <si>
-    <t>Luiz Fernando™</t>
-  </si>
-  <si>
-    <t>dogmal</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
     <t>Mila</t>
   </si>
   <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>WvCly</t>
   </si>
   <si>
     <t>DGJ-DAVI</t>
   </si>
   <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>nivelador</t>
+  </si>
+  <si>
     <t>Luciano</t>
   </si>
   <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
   </si>
   <si>
     <t>joão3:16</t>
   </si>
   <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
-  </si>
-  <si>
     <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
   </si>
   <si>
     <t>Razoável</t>
@@ -815,25 +815,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -841,25 +841,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>12</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -867,22 +867,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -893,25 +893,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -919,22 +919,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -980,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>16</v>
@@ -989,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>74</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1049,25 +1049,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1075,25 +1075,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1107,19 +1107,19 @@
         <v>74</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
         <v>9</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1153,25 +1153,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1185,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1231,13 +1231,13 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -1246,10 +1246,10 @@
         <v>12</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1257,16 +1257,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1295,10 +1295,10 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -1309,22 +1309,22 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -1335,25 +1335,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1367,7 +1367,7 @@
         <v>74</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1387,25 +1387,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1413,13 +1413,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>16</v>
@@ -1439,25 +1439,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1471,16 +1471,16 @@
         <v>74</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34">
         <v>16</v>
@@ -1491,22 +1491,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>16</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H35">
         <v>16</v>
@@ -1517,25 +1517,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1543,25 +1543,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1569,25 +1569,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1601,7 +1601,7 @@
         <v>74</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1636,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1647,25 +1647,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1673,25 +1673,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1699,25 +1699,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1737,10 +1737,10 @@
         <v>16</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44">
         <v>16</v>
@@ -1760,16 +1760,16 @@
         <v>16</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1803,25 +1803,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1855,13 +1855,13 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>16</v>
@@ -1881,25 +1881,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
         <v>8</v>
       </c>
-      <c r="E50">
-        <v>14</v>
-      </c>
       <c r="F50">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1907,25 +1907,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
         <v>15</v>
-      </c>
-      <c r="G51">
-        <v>12</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1933,13 +1933,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>16</v>
@@ -1959,22 +1959,22 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>16</v>
       </c>
       <c r="G53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53">
         <v>16</v>
@@ -2020,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55">
         <v>16</v>
@@ -2037,25 +2037,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2075,10 +2075,10 @@
         <v>16</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57">
         <v>16</v>
@@ -2115,25 +2115,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2153,13 +2153,13 @@
         <v>16</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G60">
         <v>16</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2185,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2219,16 +2219,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <v>16</v>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -106,124 +106,124 @@
     <t>dogmal</t>
   </si>
   <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
     <t>RaiNascimento</t>
   </si>
   <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>tavin</t>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
   </si>
   <si>
     <t>O GUARDIÃO</t>
   </si>
   <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
   </si>
   <si>
     <t>EDDIE</t>
   </si>
   <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
     <t>isp</t>
   </si>
   <si>
     <t>nivelador</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
   </si>
   <si>
     <t>Asten Acady</t>
@@ -1205,25 +1205,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1231,25 +1231,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1269,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1283,25 +1283,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1315,19 +1315,19 @@
         <v>74</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>14</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <v>14</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1335,25 +1335,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1361,25 +1361,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1396,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>16</v>
@@ -1413,25 +1413,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1448,13 +1448,13 @@
         <v>12</v>
       </c>
       <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
         <v>14</v>
       </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
       <c r="G33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33">
         <v>16</v>
@@ -1465,25 +1465,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>74</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1506,10 +1506,10 @@
         <v>16</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1517,25 +1517,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1543,25 +1543,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1569,25 +1569,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1595,25 +1595,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1621,13 +1621,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>16</v>
@@ -1636,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1647,25 +1647,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1673,25 +1673,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1699,25 +1699,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1734,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44">
         <v>16</v>
@@ -1743,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1760,16 +1760,16 @@
         <v>16</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1795,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1803,25 +1803,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1838,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>16</v>
@@ -1847,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1855,13 +1855,13 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>16</v>
@@ -1881,22 +1881,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>16</v>
       </c>
       <c r="G50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H50">
         <v>16</v>
@@ -1907,25 +1907,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>14</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H51">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1933,22 +1933,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
       </c>
       <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
         <v>8</v>
       </c>
-      <c r="E52">
-        <v>16</v>
-      </c>
       <c r="F52">
         <v>16</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H52">
         <v>16</v>
@@ -1959,16 +1959,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>16</v>
@@ -2011,25 +2011,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2037,25 +2037,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2075,10 +2075,10 @@
         <v>16</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H57">
         <v>16</v>
@@ -2115,25 +2115,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59">
         <v>15</v>
       </c>
-      <c r="G59">
-        <v>12</v>
-      </c>
       <c r="H59">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2153,7 +2153,7 @@
         <v>16</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <v>16</v>
@@ -2185,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2202,7 +2202,7 @@
         <v>16</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F62">
         <v>16</v>
@@ -2211,7 +2211,7 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2219,25 +2219,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E63">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
   <si>
     <t>Nome</t>
   </si>
@@ -106,127 +106,130 @@
     <t>dogmal</t>
   </si>
   <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
     <t>^_^^_^</t>
   </si>
   <si>
     <t>WILLIAN</t>
   </si>
   <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
     <t>Pedro PH</t>
   </si>
   <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Nico</t>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
   </si>
   <si>
     <t>luck</t>
   </si>
   <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>isp</t>
   </si>
   <si>
     <t>Mila</t>
   </si>
   <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
     <t>gabriel 3$</t>
   </si>
   <si>
-    <t>filho de duque</t>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
   </si>
   <si>
     <t>ZackThunder</t>
   </si>
   <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
     <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
   </si>
   <si>
     <t>Razoável</t>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -659,10 +662,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -685,10 +688,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -711,10 +714,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -737,10 +740,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -763,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -789,10 +792,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -815,10 +818,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -841,10 +844,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -867,10 +870,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -893,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -919,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -945,10 +948,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -971,10 +974,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -997,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1023,10 +1026,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -1049,10 +1052,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1075,10 +1078,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -1101,10 +1104,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1127,10 +1130,10 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1153,10 +1156,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1179,10 +1182,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1205,25 +1208,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,22 +1237,22 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1260,16 +1263,16 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1283,10 +1286,10 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1309,10 +1312,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -1335,10 +1338,10 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -1361,10 +1364,10 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -1373,13 +1376,13 @@
         <v>16</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1387,10 +1390,10 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -1413,10 +1416,10 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1439,10 +1442,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>12</v>
@@ -1465,10 +1468,10 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>16</v>
@@ -1491,10 +1494,10 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -1517,10 +1520,10 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -1529,10 +1532,10 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36">
         <v>16</v>
@@ -1543,10 +1546,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -1555,13 +1558,13 @@
         <v>16</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1569,25 +1572,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1595,16 +1598,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>16</v>
@@ -1621,25 +1624,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1647,10 +1650,10 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <v>16</v>
@@ -1659,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G41">
         <v>16</v>
@@ -1673,25 +1676,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1702,22 +1705,22 @@
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1725,25 +1728,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>16</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1751,19 +1754,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G45">
         <v>16</v>
@@ -1777,10 +1780,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D46">
         <v>16</v>
@@ -1795,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1803,25 +1806,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1832,22 +1835,22 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1855,10 +1858,10 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1867,13 +1870,13 @@
         <v>16</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>16</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1881,10 +1884,10 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -1893,10 +1896,10 @@
         <v>16</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>16</v>
@@ -1907,22 +1910,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H51">
         <v>16</v>
@@ -1933,22 +1936,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>16</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H52">
         <v>16</v>
@@ -1959,16 +1962,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>16</v>
@@ -1985,10 +1988,10 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -1997,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>16</v>
@@ -2011,25 +2014,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2037,13 +2040,13 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>16</v>
@@ -2066,22 +2069,22 @@
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2089,10 +2092,10 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58">
         <v>16</v>
@@ -2118,19 +2121,19 @@
         <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>16</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>16</v>
@@ -2141,10 +2144,10 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -2159,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2167,25 +2170,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2193,10 +2196,10 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -2219,25 +2222,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2245,16 +2248,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <v>16</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <v>16</v>
@@ -2263,6 +2266,32 @@
         <v>16</v>
       </c>
       <c r="H64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65">
+        <v>16</v>
+      </c>
+      <c r="H65">
         <v>16</v>
       </c>
     </row>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -106,15 +106,15 @@
     <t>dogmal</t>
   </si>
   <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
     <t>StelaAby</t>
   </si>
   <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
     <t>Chetto</t>
   </si>
   <si>
@@ -175,40 +175,40 @@
     <t>Gustavo Clash</t>
   </si>
   <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
     <t>Dockz</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>isp</t>
   </si>
   <si>
     <t>Mila</t>
@@ -1208,25 +1208,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,25 +1234,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1806,25 +1806,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1832,25 +1832,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>75</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1870,13 +1870,13 @@
         <v>16</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1884,22 +1884,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>16</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H50">
         <v>16</v>
@@ -1910,13 +1910,13 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>16</v>
@@ -1974,10 +1974,10 @@
         <v>16</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53">
         <v>16</v>
@@ -2000,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54">
         <v>16</v>
@@ -2040,25 +2040,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>75</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2066,25 +2066,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2101,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58">
         <v>16</v>
@@ -2110,7 +2110,7 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="88">
   <si>
     <t>Nome</t>
   </si>
@@ -55,36 +55,96 @@
     <t>sj pro</t>
   </si>
   <si>
+    <t>Luciano</t>
+  </si>
+  <si>
     <t>alm ícaro⁷⁷⁷</t>
   </si>
   <si>
     <t>- ROJÎ</t>
   </si>
   <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>Felipe</t>
   </si>
   <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>GUARDIÃO FIRE</t>
+  </si>
+  <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>juliancho</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
     <t>Zenitsu愛</t>
   </si>
   <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
     <t>danilo</t>
   </si>
   <si>
+    <t>WvCly</t>
+  </si>
+  <si>
     <t>PedrinhoR14</t>
   </si>
   <si>
     <t>5C4RF4C3</t>
   </si>
   <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
     <t>luba</t>
   </si>
   <si>
+    <t>user_123</t>
+  </si>
+  <si>
     <t>ed</t>
   </si>
   <si>
     <t>caioba_</t>
   </si>
   <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>Barão Oliveira</t>
+  </si>
+  <si>
     <t>BRS⚔️ASHURA</t>
   </si>
   <si>
@@ -94,151 +154,127 @@
     <t>Theus Carvalho</t>
   </si>
   <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>ryanhhzzyy</t>
+  </si>
+  <si>
     <t>mini.peka</t>
   </si>
   <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>Felipee</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
     <t>kauansin777</t>
   </si>
   <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
     <t>Luiz Fernando™</t>
   </si>
   <si>
-    <t>dogmal</t>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
   </si>
   <si>
     <t>^_^^_^</t>
   </si>
   <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
   </si>
   <si>
     <t>Chetto</t>
   </si>
   <si>
-    <t>Alvaro</t>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
   </si>
   <si>
     <t>Nico</t>
   </si>
   <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
     <t>Sotto ツ</t>
   </si>
   <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>nivelador</t>
   </si>
   <si>
     <t>O GUARDIÃO</t>
   </si>
   <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
+    <t>Verificar</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
   <si>
     <t>Razoável</t>
-  </si>
-  <si>
-    <t>Verificar</t>
-  </si>
-  <si>
-    <t>Ok</t>
   </si>
   <si>
     <t>Guerra Atual</t>
@@ -599,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,25 +672,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
       <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>11</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -662,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -688,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -714,10 +750,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -740,22 +776,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -766,25 +802,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -792,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -804,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -818,10 +854,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -844,25 +880,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -870,25 +906,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -896,25 +932,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
       <c r="H12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -922,13 +958,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -948,19 +984,19 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -974,10 +1010,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -1000,16 +1036,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1026,25 +1062,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1052,25 +1088,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1078,25 +1114,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1104,25 +1140,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1130,25 +1166,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1156,25 +1192,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>16</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1182,25 +1218,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1208,25 +1244,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,25 +1270,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1260,25 +1296,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1286,25 +1322,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1312,25 +1348,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>14</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1338,25 +1374,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1364,19 +1400,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>16</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1390,22 +1426,22 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>16</v>
@@ -1416,10 +1452,10 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1442,22 +1478,22 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H33">
         <v>16</v>
@@ -1468,19 +1504,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1494,10 +1530,10 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -1506,13 +1542,13 @@
         <v>16</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1520,25 +1556,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1546,25 +1582,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1572,25 +1608,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1598,25 +1634,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>16</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1624,25 +1660,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1650,25 +1686,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1676,16 +1712,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1702,25 +1738,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1728,25 +1764,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1754,19 +1790,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
         <v>14</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>10</v>
-      </c>
-      <c r="F45">
-        <v>16</v>
       </c>
       <c r="G45">
         <v>16</v>
@@ -1780,25 +1816,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1806,25 +1842,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1832,22 +1868,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
         <v>12</v>
-      </c>
-      <c r="G48">
-        <v>16</v>
       </c>
       <c r="H48">
         <v>13</v>
@@ -1858,10 +1894,10 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1870,13 +1906,13 @@
         <v>16</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1884,13 +1920,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>16</v>
@@ -1910,10 +1946,10 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D51">
         <v>16</v>
@@ -1922,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <v>16</v>
@@ -1936,25 +1972,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1962,25 +1998,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1988,25 +2024,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D54">
         <v>16</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2014,25 +2050,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F55">
         <v>16</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H55">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2040,25 +2076,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2066,10 +2102,10 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D57">
         <v>16</v>
@@ -2092,16 +2128,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F58">
         <v>16</v>
@@ -2110,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2118,13 +2154,13 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>16</v>
@@ -2133,7 +2169,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H59">
         <v>16</v>
@@ -2144,10 +2180,10 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -2162,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2170,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2196,25 +2232,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2222,10 +2258,10 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -2248,25 +2284,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64">
         <v>8</v>
       </c>
-      <c r="F64">
-        <v>16</v>
-      </c>
-      <c r="G64">
-        <v>16</v>
-      </c>
       <c r="H64">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2274,24 +2310,336 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>16</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>16</v>
+      </c>
+      <c r="H67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>16</v>
-      </c>
-      <c r="G65">
-        <v>16</v>
-      </c>
-      <c r="H65">
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+      <c r="G69">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>13</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>16</v>
+      </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73">
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>12</v>
+      </c>
+      <c r="H74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>14</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77">
         <v>16</v>
       </c>
     </row>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -205,22 +205,22 @@
     <t>RaiNascimento</t>
   </si>
   <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
     <t>EDDIE</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
   </si>
   <si>
     <t>⭐O SENTINELA ⭐</t>
@@ -2143,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>16</v>
@@ -2169,7 +2169,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>16</v>
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,25 +2232,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -73,181 +73,181 @@
     <t>tavin</t>
   </si>
   <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>GUARDIÃO FIRE</t>
+  </si>
+  <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>juliancho</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Zenitsu愛</t>
+  </si>
+  <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>danilo</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>PedrinhoR14</t>
+  </si>
+  <si>
+    <t>5C4RF4C3</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>luba</t>
+  </si>
+  <si>
+    <t>user_123</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>caioba_</t>
+  </si>
+  <si>
+    <t>Barão Oliveira</t>
+  </si>
+  <si>
+    <t>BRS⚔️ASHURA</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Theus Carvalho</t>
+  </si>
+  <si>
+    <t>ryanhhzzyy</t>
+  </si>
+  <si>
+    <t>mini.peka</t>
+  </si>
+  <si>
+    <t>Felipee</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>kauansin777</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>Luiz Fernando™</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
     <t>StelaAby</t>
   </si>
   <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
     <t>51 é pinga</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
-    <t>GUARDIÃO FIRE</t>
-  </si>
-  <si>
-    <t>Meliodas</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
-  </si>
-  <si>
-    <t>juliancho</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Zenitsu愛</t>
-  </si>
-  <si>
-    <t>dogmal</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>danilo</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>PedrinhoR14</t>
-  </si>
-  <si>
-    <t>5C4RF4C3</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>luba</t>
-  </si>
-  <si>
-    <t>user_123</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>caioba_</t>
-  </si>
-  <si>
     <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>Barão Oliveira</t>
-  </si>
-  <si>
-    <t>BRS⚔️ASHURA</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>Theus Carvalho</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>ryanhhzzyy</t>
-  </si>
-  <si>
-    <t>mini.peka</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>Felipee</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>kauansin777</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>Luiz Fernando™</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Mila</t>
   </si>
   <si>
     <t>joão3:16</t>
@@ -964,7 +964,7 @@
         <v>87</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -984,25 +984,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1010,25 +1010,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1062,25 +1062,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>87</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1140,25 +1140,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>87</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1224,19 +1224,19 @@
         <v>87</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
         <v>5</v>
-      </c>
-      <c r="G23">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1244,25 +1244,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1270,25 +1270,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>87</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>16</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1331,16 +1331,16 @@
         <v>16</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1357,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -1400,25 +1400,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1530,25 +1530,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1591,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1634,25 +1634,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>16</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1660,25 +1660,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1686,25 +1686,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1721,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,25 +1738,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1764,25 +1764,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1799,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <v>16</v>
@@ -1828,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1842,25 +1842,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1877,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1903,16 +1903,16 @@
         <v>16</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,25 +1920,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <v>16</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1958,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G51">
         <v>16</v>
@@ -1972,13 +1972,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1998,25 +1998,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2033,16 +2033,16 @@
         <v>16</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2050,16 +2050,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F55">
         <v>16</v>
@@ -2068,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2085,16 +2085,16 @@
         <v>16</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2128,25 +2128,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2154,25 +2154,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,13 +2232,13 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>16</v>
@@ -2247,10 +2247,10 @@
         <v>16</v>
       </c>
       <c r="G62">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2258,19 +2258,19 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>16</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G63">
         <v>16</v>
@@ -2284,25 +2284,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
       </c>
       <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
         <v>15</v>
       </c>
-      <c r="E64">
-        <v>16</v>
-      </c>
       <c r="F64">
         <v>16</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2310,25 +2310,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
         <v>87</v>
       </c>
       <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65">
         <v>8</v>
       </c>
-      <c r="E65">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>14</v>
-      </c>
       <c r="G65">
         <v>16</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2336,25 +2336,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2371,16 +2371,16 @@
         <v>16</v>
       </c>
       <c r="E67">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="H67">
         <v>15</v>
-      </c>
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="G67">
-        <v>16</v>
-      </c>
-      <c r="H67">
-        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2388,25 +2388,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>87</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2423,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F69">
         <v>16</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2440,22 +2440,22 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H70">
         <v>16</v>
@@ -2475,16 +2475,16 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -55,226 +55,226 @@
     <t>sj pro</t>
   </si>
   <si>
+    <t>alm ícaro⁷⁷⁷</t>
+  </si>
+  <si>
+    <t>- ROJÎ</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>GUARDIÃO FIRE</t>
+  </si>
+  <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>juliancho</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Zenitsu愛</t>
+  </si>
+  <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>danilo</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>PedrinhoR14</t>
+  </si>
+  <si>
+    <t>5C4RF4C3</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>luba</t>
+  </si>
+  <si>
+    <t>user_123</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>caioba_</t>
+  </si>
+  <si>
+    <t>Barão Oliveira</t>
+  </si>
+  <si>
+    <t>BRS⚔️ASHURA</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Theus Carvalho</t>
+  </si>
+  <si>
+    <t>ryanhhzzyy</t>
+  </si>
+  <si>
+    <t>mini.peka</t>
+  </si>
+  <si>
+    <t>Felipee</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>kauansin777</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>Luiz Fernando™</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
     <t>Luciano</t>
   </si>
   <si>
-    <t>alm ícaro⁷⁷⁷</t>
-  </si>
-  <si>
-    <t>- ROJÎ</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
-    <t>GUARDIÃO FIRE</t>
-  </si>
-  <si>
-    <t>Meliodas</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
-  </si>
-  <si>
-    <t>juliancho</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Zenitsu愛</t>
-  </si>
-  <si>
-    <t>dogmal</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>danilo</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>PedrinhoR14</t>
-  </si>
-  <si>
-    <t>5C4RF4C3</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>luba</t>
-  </si>
-  <si>
-    <t>user_123</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>caioba_</t>
-  </si>
-  <si>
-    <t>Barão Oliveira</t>
-  </si>
-  <si>
-    <t>BRS⚔️ASHURA</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>Theus Carvalho</t>
-  </si>
-  <si>
-    <t>ryanhhzzyy</t>
-  </si>
-  <si>
-    <t>mini.peka</t>
-  </si>
-  <si>
-    <t>Felipee</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>kauansin777</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>Luiz Fernando™</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
     <t>Verificar</t>
   </si>
   <si>
+    <t>Razoável</t>
+  </si>
+  <si>
     <t>Ok</t>
-  </si>
-  <si>
-    <t>Razoável</t>
   </si>
   <si>
     <t>Guerra Atual</t>
@@ -802,25 +802,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -889,16 +889,16 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,19 +912,19 @@
         <v>87</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
       <c r="H11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -932,25 +932,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>87</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>87</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>87</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1062,25 +1062,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1088,19 +1088,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1114,25 +1114,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1146,19 +1146,19 @@
         <v>87</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1166,25 +1166,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1192,13 +1192,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -1207,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1218,25 +1218,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1244,25 +1244,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1279,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1296,13 +1296,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1322,25 +1322,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>87</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1360,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1383,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1409,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
         <v>9</v>
       </c>
-      <c r="F33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>16</v>
-      </c>
       <c r="H33">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1513,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1608,25 +1608,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1634,25 +1634,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1660,25 +1660,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1686,25 +1686,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>16</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1712,25 +1712,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <v>16</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
@@ -1756,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1764,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
@@ -1776,7 +1776,7 @@
         <v>16</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>16</v>
@@ -1790,25 +1790,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1868,16 +1868,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,25 +1920,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>16</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,7 +1946,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -1955,16 +1955,16 @@
         <v>16</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1972,7 +1972,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
@@ -1981,16 +1981,16 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1998,7 +1998,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
@@ -2024,7 +2024,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
@@ -2039,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <v>16</v>
@@ -2050,7 +2050,7 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
@@ -2065,7 +2065,7 @@
         <v>16</v>
       </c>
       <c r="G55">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H55">
         <v>16</v>
@@ -2076,7 +2076,7 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
@@ -2102,25 +2102,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>87</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2154,25 +2154,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2180,7 +2180,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
@@ -2212,7 +2212,7 @@
         <v>87</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>16</v>
@@ -2221,10 +2221,10 @@
         <v>16</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,25 +2232,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>16</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2258,19 +2258,19 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G63">
         <v>16</v>
@@ -2284,7 +2284,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
@@ -2296,13 +2296,13 @@
         <v>15</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <v>16</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2310,25 +2310,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
         <v>87</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2336,25 +2336,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2368,19 +2368,19 @@
         <v>87</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2394,16 +2394,16 @@
         <v>87</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F68">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <v>16</v>
@@ -2414,7 +2414,7 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
         <v>87</v>
@@ -2423,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>16</v>
@@ -2440,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
@@ -2452,13 +2452,13 @@
         <v>16</v>
       </c>
       <c r="F70">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2466,7 +2466,7 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
@@ -2478,13 +2478,13 @@
         <v>16</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2492,25 +2492,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H72">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2518,25 +2518,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>14</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2544,25 +2544,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F74">
         <v>14</v>
       </c>
       <c r="G74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2576,19 +2576,19 @@
         <v>87</v>
       </c>
       <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
         <v>15</v>
       </c>
-      <c r="E75">
-        <v>16</v>
-      </c>
-      <c r="F75">
-        <v>14</v>
-      </c>
-      <c r="G75">
-        <v>16</v>
-      </c>
       <c r="H75">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2596,7 +2596,7 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
@@ -2605,16 +2605,16 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H76">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2622,7 +2622,7 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
@@ -2637,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H77">
         <v>16</v>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -61,220 +61,220 @@
     <t>- ROJÎ</t>
   </si>
   <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>GUARDIÃO FIRE</t>
+  </si>
+  <si>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>juliancho</t>
+  </si>
+  <si>
+    <t>Zenitsu愛</t>
+  </si>
+  <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>danilo</t>
+  </si>
+  <si>
+    <t>PedrinhoR14</t>
+  </si>
+  <si>
+    <t>5C4RF4C3</t>
+  </si>
+  <si>
+    <t>luba</t>
+  </si>
+  <si>
+    <t>user_123</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>caioba_</t>
+  </si>
+  <si>
+    <t>Barão Oliveira</t>
+  </si>
+  <si>
+    <t>BRS⚔️ASHURA</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Theus Carvalho</t>
+  </si>
+  <si>
+    <t>ryanhhzzyy</t>
+  </si>
+  <si>
+    <t>mini.peka</t>
+  </si>
+  <si>
+    <t>Felipee</t>
+  </si>
+  <si>
+    <t>kauansin777</t>
+  </si>
+  <si>
+    <t>Luiz Fernando™</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
     <t>GabiMalvadeza</t>
   </si>
   <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
     <t>Alvaro</t>
   </si>
   <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
-    <t>GUARDIÃO FIRE</t>
-  </si>
-  <si>
-    <t>Meliodas</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
-  </si>
-  <si>
-    <t>juliancho</t>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
   </si>
   <si>
     <t>Bruno</t>
   </si>
   <si>
-    <t>Zenitsu愛</t>
-  </si>
-  <si>
-    <t>dogmal</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>danilo</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>PedrinhoR14</t>
-  </si>
-  <si>
-    <t>5C4RF4C3</t>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>isp</t>
   </si>
   <si>
     <t>filho de duque</t>
   </si>
   <si>
-    <t>luba</t>
-  </si>
-  <si>
-    <t>user_123</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>caioba_</t>
-  </si>
-  <si>
-    <t>Barão Oliveira</t>
-  </si>
-  <si>
-    <t>BRS⚔️ASHURA</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>Theus Carvalho</t>
-  </si>
-  <si>
-    <t>ryanhhzzyy</t>
-  </si>
-  <si>
-    <t>mini.peka</t>
-  </si>
-  <si>
-    <t>Felipee</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>kauansin777</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>Luiz Fernando™</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
     <t>luck</t>
   </si>
   <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
   </si>
   <si>
     <t>gabiggoughost</t>
   </si>
   <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>Chetto</t>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
   </si>
   <si>
     <t>Mila</t>
   </si>
   <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
     <t>Verificar</t>
   </si>
   <si>
+    <t>Ok</t>
+  </si>
+  <si>
     <t>Razoável</t>
-  </si>
-  <si>
-    <t>Ok</t>
   </si>
   <si>
     <t>Guerra Atual</t>
@@ -854,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -880,25 +880,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -906,25 +906,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -932,25 +932,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>87</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -990,19 +990,19 @@
         <v>87</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>87</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1088,19 +1088,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>87</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -1181,10 +1181,10 @@
         <v>16</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1218,25 +1218,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>16</v>
@@ -1282,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1296,25 +1296,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1383,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1452,25 +1452,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1478,25 +1478,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1513,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>87</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1608,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -1617,10 +1617,10 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -1634,25 +1634,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1660,7 +1660,7 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
@@ -1686,25 +1686,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1712,7 +1712,7 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
@@ -1730,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
@@ -1764,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
@@ -1776,7 +1776,7 @@
         <v>16</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44">
         <v>16</v>
@@ -1790,25 +1790,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1816,25 +1816,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1842,13 +1842,13 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1868,16 +1868,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>16</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,7 +1920,7 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -1946,7 +1946,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -1955,16 +1955,16 @@
         <v>16</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>87</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>16</v>
@@ -1987,10 +1987,10 @@
         <v>16</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1998,25 +1998,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2024,7 +2024,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
@@ -2042,7 +2042,7 @@
         <v>12</v>
       </c>
       <c r="H54">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2056,16 +2056,16 @@
         <v>87</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H55">
         <v>16</v>
@@ -2082,19 +2082,19 @@
         <v>87</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2102,25 +2102,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2128,19 +2128,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2154,25 +2154,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2180,25 +2180,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,25 +2232,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>16</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2264,13 +2264,13 @@
         <v>87</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G63">
         <v>16</v>
@@ -2284,7 +2284,7 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
@@ -2293,16 +2293,16 @@
         <v>16</v>
       </c>
       <c r="E64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G64">
         <v>16</v>
       </c>
       <c r="H64">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2336,7 +2336,7 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
@@ -2351,10 +2351,10 @@
         <v>16</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H66">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2368,19 +2368,19 @@
         <v>87</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2388,7 +2388,7 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
         <v>87</v>
@@ -2397,16 +2397,16 @@
         <v>16</v>
       </c>
       <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
         <v>8</v>
       </c>
-      <c r="F68">
-        <v>16</v>
-      </c>
       <c r="G68">
         <v>16</v>
       </c>
       <c r="H68">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2414,7 +2414,7 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
         <v>87</v>
@@ -2440,7 +2440,7 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
@@ -2449,10 +2449,10 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
@@ -2481,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="G71">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H71">
         <v>16</v>
@@ -2492,25 +2492,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H72">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2524,19 +2524,19 @@
         <v>87</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G73">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H73">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2544,13 +2544,13 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>16</v>
@@ -2570,7 +2570,7 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
@@ -2596,7 +2596,7 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
@@ -2622,7 +2622,7 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
@@ -2631,13 +2631,13 @@
         <v>16</v>
       </c>
       <c r="E77">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F77">
         <v>16</v>
       </c>
       <c r="G77">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H77">
         <v>16</v>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -196,55 +196,55 @@
     <t>Diih</t>
   </si>
   <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
     <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
   </si>
   <si>
     <t>luck</t>
@@ -2024,25 +2024,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2056,19 +2056,19 @@
         <v>87</v>
       </c>
       <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55">
         <v>14</v>
       </c>
-      <c r="E55">
-        <v>12</v>
-      </c>
-      <c r="F55">
-        <v>13</v>
-      </c>
       <c r="G55">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2076,25 +2076,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G56">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2114,13 +2114,13 @@
         <v>16</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2128,25 +2128,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,19 +2160,19 @@
         <v>87</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2180,25 +2180,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,25 +2232,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>16</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2258,19 +2258,19 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>16</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G63">
         <v>16</v>
@@ -2284,25 +2284,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2310,25 +2310,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
         <v>87</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2345,16 +2345,16 @@
         <v>16</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2371,16 +2371,16 @@
         <v>16</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2397,16 +2397,16 @@
         <v>16</v>
       </c>
       <c r="E68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G68">
         <v>16</v>
       </c>
       <c r="H68">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2423,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2449,16 +2449,16 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -142,70 +142,70 @@
     <t>Fafazin10</t>
   </si>
   <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
     <t>gnvx v</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
   </si>
   <si>
     <t>Nico</t>
@@ -1562,19 +1562,19 @@
         <v>87</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1582,25 +1582,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
       </c>
       <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>16</v>
-      </c>
       <c r="G37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1620,7 +1620,7 @@
         <v>16</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <v>16</v>
@@ -1669,16 +1669,16 @@
         <v>16</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1695,16 +1695,16 @@
         <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1782,7 +1782,7 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1808,7 +1808,7 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1816,25 +1816,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1842,13 +1842,13 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1868,25 +1868,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1929,16 +1929,16 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,25 +1946,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
         <v>8</v>
       </c>
-      <c r="F51">
-        <v>14</v>
-      </c>
-      <c r="G51">
-        <v>7</v>
-      </c>
       <c r="H51">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1972,22 +1972,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1998,25 +1998,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,19 +2030,19 @@
         <v>87</v>
       </c>
       <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
         <v>14</v>
       </c>
-      <c r="E54">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
-      </c>
       <c r="G54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H54">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2050,25 +2050,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2088,13 +2088,13 @@
         <v>16</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2102,19 +2102,19 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -160,88 +160,88 @@
     <t>super</t>
   </si>
   <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
     <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
   </si>
   <si>
     <t>DGJ-DAVI</t>
@@ -1756,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1782,7 +1782,7 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1790,25 +1790,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1816,13 +1816,13 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1903,16 +1903,16 @@
         <v>16</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,25 +1920,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
         <v>8</v>
       </c>
-      <c r="F50">
-        <v>14</v>
-      </c>
-      <c r="G50">
-        <v>7</v>
-      </c>
       <c r="H50">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,22 +1946,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -1972,25 +1972,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,19 +2004,19 @@
         <v>87</v>
       </c>
       <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53">
         <v>14</v>
       </c>
-      <c r="E53">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <v>13</v>
-      </c>
       <c r="G53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2024,25 +2024,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2062,13 +2062,13 @@
         <v>16</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2076,19 +2076,19 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2108,19 +2108,19 @@
         <v>87</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2154,25 +2154,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2180,25 +2180,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>16</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2232,19 +2232,19 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>16</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62">
         <v>16</v>
@@ -2258,25 +2258,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2284,25 +2284,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2319,16 +2319,16 @@
         <v>16</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2345,16 +2345,16 @@
         <v>16</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2371,16 +2371,16 @@
         <v>16</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <v>16</v>
       </c>
       <c r="H67">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2397,16 +2397,16 @@
         <v>16</v>
       </c>
       <c r="E68">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2423,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -241,16 +241,16 @@
     <t>filho de duque</t>
   </si>
   <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
     <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>andrebts</t>
   </si>
   <si>
     <t>51 é pinga</t>
@@ -2429,10 +2429,10 @@
         <v>16</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2458,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2475,13 +2475,13 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F71">
         <v>16</v>
       </c>
       <c r="G71">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H71">
         <v>16</v>
@@ -2501,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>16</v>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -139,133 +139,133 @@
     <t>Meliodas</t>
   </si>
   <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
     <t>Fafazin10</t>
   </si>
   <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
   </si>
   <si>
     <t>EDDIE</t>
   </si>
   <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
+  </si>
+  <si>
+    <t>Mila</t>
   </si>
   <si>
     <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
-    <t>Mila</t>
   </si>
   <si>
     <t>Verificar</t>
@@ -1536,19 +1536,19 @@
         <v>87</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1556,25 +1556,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
       <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
         <v>8</v>
       </c>
-      <c r="E36">
-        <v>12</v>
-      </c>
-      <c r="F36">
-        <v>16</v>
-      </c>
       <c r="G36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1594,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -1643,16 +1643,16 @@
         <v>16</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1669,16 +1669,16 @@
         <v>16</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1730,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1756,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1764,25 +1764,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1790,13 +1790,13 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1816,25 +1816,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1851,16 +1851,16 @@
         <v>16</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1868,13 +1868,13 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>16</v>
@@ -1883,10 +1883,10 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1894,25 +1894,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1926,19 +1926,19 @@
         <v>87</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,25 +1946,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1972,25 +1972,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+      <c r="H52">
         <v>12</v>
-      </c>
-      <c r="F52">
-        <v>13</v>
-      </c>
-      <c r="G52">
-        <v>11</v>
-      </c>
-      <c r="H52">
-        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1998,25 +1998,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F53">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2024,25 +2024,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2050,25 +2050,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2108,19 +2108,19 @@
         <v>87</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2128,19 +2128,19 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         <v>87</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F59">
         <v>14</v>
       </c>
       <c r="G59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H59">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2195,10 +2195,10 @@
         <v>16</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="G62">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H62">
         <v>16</v>
@@ -2258,16 +2258,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="G64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H64">
         <v>16</v>
@@ -2319,16 +2319,16 @@
         <v>16</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2345,16 +2345,16 @@
         <v>16</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2377,10 +2377,10 @@
         <v>16</v>
       </c>
       <c r="G67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H67">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2397,16 +2397,16 @@
         <v>16</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2423,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69">
         <v>16</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2455,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H70">
         <v>16</v>
@@ -2478,13 +2478,13 @@
         <v>15</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G71">
         <v>16</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2518,19 +2518,19 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>16</v>
       </c>
       <c r="F73">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G73">
         <v>16</v>
@@ -2544,25 +2544,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2579,16 +2579,16 @@
         <v>16</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H75">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2605,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F76">
         <v>16</v>
@@ -2622,25 +2622,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H77">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -130,142 +130,142 @@
     <t>Luiz Fernando™</t>
   </si>
   <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
     <t>tavin</t>
   </si>
   <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>Meliodas</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
   </si>
   <si>
     <t>RaiNascimento</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>joão3:16</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
   </si>
   <si>
     <t>Nico</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
   </si>
   <si>
     <t>Verificar</t>
@@ -1461,16 +1461,16 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1478,25 +1478,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1510,19 +1510,19 @@
         <v>87</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1530,25 +1530,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
       </c>
       <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="E35">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>16</v>
-      </c>
       <c r="G35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1568,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -1617,16 +1617,16 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1643,16 +1643,16 @@
         <v>16</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1704,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1730,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,25 +1738,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1764,13 +1764,13 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1790,25 +1790,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1816,13 +1816,13 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>16</v>
@@ -1831,10 +1831,10 @@
         <v>16</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1842,25 +1842,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,19 +1874,19 @@
         <v>87</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1894,25 +1894,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,25 +1920,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>8</v>
+      </c>
+      <c r="H50">
         <v>12</v>
-      </c>
-      <c r="F50">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>11</v>
-      </c>
-      <c r="H50">
-        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,25 +1946,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1972,25 +1972,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1998,19 +1998,19 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2076,25 +2076,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2143,10 +2143,10 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2154,25 +2154,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2206,25 +2206,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2241,16 +2241,16 @@
         <v>16</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2267,16 +2267,16 @@
         <v>16</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2293,16 +2293,16 @@
         <v>16</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2325,10 +2325,10 @@
         <v>16</v>
       </c>
       <c r="G65">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2345,16 +2345,16 @@
         <v>16</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2371,16 +2371,16 @@
         <v>16</v>
       </c>
       <c r="E67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>16</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2403,7 +2403,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <v>16</v>
@@ -2423,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>16</v>
@@ -2449,16 +2449,16 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G70">
         <v>16</v>
       </c>
       <c r="H70">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2475,16 +2475,16 @@
         <v>16</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G71">
         <v>16</v>
       </c>
       <c r="H71">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2492,19 +2492,19 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>16</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72">
         <v>16</v>
@@ -2518,25 +2518,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2553,16 +2553,16 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2579,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="E75">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <v>16</v>
@@ -2596,25 +2596,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H76">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2622,25 +2622,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77">
         <v>14</v>
       </c>
       <c r="G77">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -136,37 +136,37 @@
     <t>Meliodas</t>
   </si>
   <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
     <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
   </si>
   <si>
     <t>WvCly</t>
@@ -1504,25 +1504,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
       </c>
       <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34">
         <v>8</v>
       </c>
-      <c r="E34">
-        <v>12</v>
-      </c>
-      <c r="F34">
-        <v>16</v>
-      </c>
       <c r="G34">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1542,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G35">
         <v>16</v>
@@ -1591,16 +1591,16 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1617,16 +1617,16 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1704,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1712,25 +1712,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,13 +1738,13 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -175,82 +175,82 @@
     <t>Pedro PH</t>
   </si>
   <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
     <t>Diih</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
   </si>
   <si>
     <t>nivelador</t>
@@ -1842,25 +1842,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,19 +1874,19 @@
         <v>87</v>
       </c>
       <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>13</v>
+      </c>
+      <c r="F48">
         <v>14</v>
       </c>
-      <c r="E48">
-        <v>12</v>
-      </c>
-      <c r="F48">
-        <v>13</v>
-      </c>
       <c r="G48">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1894,25 +1894,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1932,13 +1932,13 @@
         <v>16</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,19 +1946,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2024,19 +2024,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>16</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2076,25 +2076,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2102,25 +2102,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2137,16 +2137,16 @@
         <v>16</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2163,16 +2163,16 @@
         <v>16</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2215,16 +2215,16 @@
         <v>16</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2241,16 +2241,16 @@
         <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2267,16 +2267,16 @@
         <v>16</v>
       </c>
       <c r="E63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2293,16 +2293,16 @@
         <v>16</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2328,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2345,13 +2345,13 @@
         <v>16</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>16</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H66">
         <v>16</v>
@@ -2371,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>16</v>
@@ -2423,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G69">
         <v>16</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2449,16 +2449,16 @@
         <v>16</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G70">
         <v>16</v>
       </c>
       <c r="H70">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2466,19 +2466,19 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>16</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G71">
         <v>16</v>
@@ -2498,19 +2498,19 @@
         <v>87</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -148,37 +148,37 @@
     <t>tavin</t>
   </si>
   <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
     <t>super</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
   </si>
   <si>
     <t>domador de but</t>
@@ -1652,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1686,25 +1686,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1712,13 +1712,13 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1764,25 +1764,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
         <v>8</v>
       </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
       <c r="F44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1790,25 +1790,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
         <v>8</v>
       </c>
-      <c r="F45">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
       <c r="H45">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,19 +1822,19 @@
         <v>87</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,19 +1848,19 @@
         <v>87</v>
       </c>
       <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="F47">
         <v>14</v>
       </c>
-      <c r="E47">
-        <v>12</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
-      </c>
       <c r="G47">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1868,25 +1868,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8">

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="91">
   <si>
     <t>Nome</t>
   </si>
@@ -43,24 +43,84 @@
     <t>JOSA</t>
   </si>
   <si>
+    <t>joão3:16</t>
+  </si>
+  <si>
     <t>nova</t>
   </si>
   <si>
+    <t>Chetto</t>
+  </si>
+  <si>
     <t>Yzzy the best ¿</t>
   </si>
   <si>
+    <t>Mila</t>
+  </si>
+  <si>
     <t>Gustavo</t>
   </si>
   <si>
     <t>sj pro</t>
   </si>
   <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>I'm inevitable</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
     <t>alm ícaro⁷⁷⁷</t>
   </si>
   <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
     <t>- ROJÎ</t>
   </si>
   <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>BODOQUE</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>Felipe</t>
   </si>
   <si>
@@ -70,202 +130,151 @@
     <t>GUARDIÃO FIRE</t>
   </si>
   <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
     <t>gabriel 3$</t>
   </si>
   <si>
+    <t>^_^^_^</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
     <t>juliancho</t>
   </si>
   <si>
+    <t>Bruno</t>
+  </si>
+  <si>
     <t>Zenitsu愛</t>
   </si>
   <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
     <t>dogmal</t>
   </si>
   <si>
+    <t>domador de but</t>
+  </si>
+  <si>
     <t>danilo</t>
   </si>
   <si>
+    <t>WvCly</t>
+  </si>
+  <si>
     <t>PedrinhoR14</t>
   </si>
   <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
     <t>5C4RF4C3</t>
   </si>
   <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
+  </si>
+  <si>
     <t>luba</t>
   </si>
   <si>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
     <t>user_123</t>
   </si>
   <si>
     <t>ed</t>
   </si>
   <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
     <t>caioba_</t>
   </si>
   <si>
+    <t>O GUARDIÃO</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
     <t>Barão Oliveira</t>
   </si>
   <si>
     <t>BRS⚔️ASHURA</t>
   </si>
   <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
     <t>john</t>
   </si>
   <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
     <t>Theus Carvalho</t>
   </si>
   <si>
+    <t>polaris</t>
+  </si>
+  <si>
     <t>ryanhhzzyy</t>
   </si>
   <si>
     <t>mini.peka</t>
   </si>
   <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
     <t>Felipee</t>
   </si>
   <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>AUGUSTO</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
     <t>kauansin777</t>
   </si>
   <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
     <t>Luiz Fernando™</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>Meliodas</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>joão3:16</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>Nico</t>
   </si>
   <si>
     <t>Verificar</t>
@@ -635,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,25 +681,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
       <c r="H2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -698,25 +707,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -724,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -750,25 +759,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -776,10 +785,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -788,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -802,25 +811,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -828,10 +837,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -854,10 +863,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -869,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -880,25 +889,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -906,16 +915,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -932,25 +941,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -958,25 +967,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -984,25 +993,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1010,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1025,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1036,13 +1045,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -1054,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1062,25 +1071,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1088,13 +1097,13 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1114,25 +1123,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1140,25 +1149,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1166,25 +1175,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>16</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1192,19 +1201,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1218,25 +1227,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1244,25 +1253,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1270,25 +1279,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1296,25 +1305,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>16</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1322,25 +1331,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1348,25 +1357,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1374,10 +1383,10 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1400,25 +1409,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1426,25 +1435,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1452,25 +1461,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1478,25 +1487,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1504,19 +1513,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>16</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>16</v>
@@ -1530,25 +1539,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>16</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1556,25 +1565,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1582,25 +1591,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1608,10 +1617,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -1626,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1634,25 +1643,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1660,10 +1669,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -1686,16 +1695,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1712,25 +1721,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42">
         <v>8</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1738,25 +1747,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>16</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1764,25 +1773,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
         <v>8</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>14</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>7</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1790,25 +1799,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1816,22 +1825,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
         <v>14</v>
-      </c>
-      <c r="E46">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <v>11</v>
       </c>
       <c r="H46">
         <v>16</v>
@@ -1842,25 +1851,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1868,25 +1877,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1894,25 +1903,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>16</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1920,10 +1929,10 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -1932,13 +1941,13 @@
         <v>16</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1946,25 +1955,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1972,25 +1981,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1998,10 +2007,10 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2013,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2024,25 +2033,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>16</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2050,22 +2059,22 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F55">
+        <v>16</v>
+      </c>
+      <c r="G55">
         <v>14</v>
-      </c>
-      <c r="G55">
-        <v>16</v>
       </c>
       <c r="H55">
         <v>16</v>
@@ -2076,10 +2085,10 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2102,22 +2111,22 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>16</v>
       </c>
       <c r="G57">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H57">
         <v>16</v>
@@ -2128,25 +2137,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2154,25 +2163,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2180,10 +2189,10 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -2206,22 +2215,22 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>16</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2232,25 +2241,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2258,25 +2267,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2284,10 +2293,10 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D64">
         <v>16</v>
@@ -2296,13 +2305,13 @@
         <v>16</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2310,25 +2319,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2336,25 +2345,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>15</v>
       </c>
-      <c r="F66">
-        <v>16</v>
-      </c>
-      <c r="G66">
-        <v>16</v>
-      </c>
       <c r="H66">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2362,22 +2371,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>16</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H67">
         <v>16</v>
@@ -2388,10 +2397,10 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D68">
         <v>16</v>
@@ -2406,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="H68">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2414,25 +2423,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H69">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2440,13 +2449,13 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>16</v>
@@ -2466,25 +2475,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2492,10 +2501,10 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2504,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2518,25 +2527,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D73">
         <v>16</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2544,25 +2553,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2570,22 +2579,22 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>16</v>
@@ -2596,25 +2605,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2622,25 +2631,103 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77">
-        <v>10</v>
-      </c>
-      <c r="E77">
-        <v>14</v>
-      </c>
-      <c r="F77">
-        <v>14</v>
-      </c>
-      <c r="G77">
-        <v>9</v>
-      </c>
-      <c r="H77">
-        <v>14</v>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79">
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>16</v>
+      </c>
+      <c r="H80">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>Nome</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>SpartanBr444</t>
   </si>
   <si>
     <t>Diih</t>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -707,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -733,10 +736,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -759,10 +762,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -785,10 +788,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -811,10 +814,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -837,10 +840,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -863,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -889,10 +892,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -915,10 +918,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -941,10 +944,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -967,10 +970,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -993,10 +996,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1019,10 +1022,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1045,10 +1048,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -1071,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1097,10 +1100,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1123,10 +1126,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -1149,10 +1152,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>14</v>
@@ -1175,10 +1178,10 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -1204,10 +1207,10 @@
         <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1227,25 +1230,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1253,25 +1256,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1282,13 +1285,13 @@
         <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1305,25 +1308,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1331,25 +1334,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>16</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1357,25 +1360,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1383,25 +1386,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1409,16 +1412,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1435,16 +1438,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1461,16 +1464,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1490,22 +1493,22 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1513,13 +1516,13 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>16</v>
@@ -1542,22 +1545,22 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G35">
         <v>16</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1565,25 +1568,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1591,13 +1594,13 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1620,19 +1623,19 @@
         <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1643,25 +1646,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1672,22 +1675,22 @@
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1695,25 +1698,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1724,22 +1727,22 @@
         <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1747,16 +1750,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>16</v>
@@ -1765,7 +1768,7 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1776,22 +1779,22 @@
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1799,25 +1802,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
         <v>14</v>
       </c>
-      <c r="G45">
-        <v>16</v>
-      </c>
       <c r="H45">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1828,19 +1831,19 @@
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>16</v>
@@ -1851,22 +1854,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47">
         <v>16</v>
       </c>
       <c r="G47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>16</v>
@@ -1877,25 +1880,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1903,16 +1906,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1929,25 +1932,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>16</v>
       </c>
       <c r="F50">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1955,16 +1958,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D51">
         <v>16</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>16</v>
@@ -1973,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1981,16 +1984,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52">
         <v>16</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>16</v>
@@ -1999,7 +2002,7 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2007,25 +2010,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53">
         <v>12</v>
-      </c>
-      <c r="H53">
-        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2033,25 +2036,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54">
         <v>8</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>12</v>
-      </c>
-      <c r="G54">
-        <v>10</v>
-      </c>
-      <c r="H54">
-        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2062,22 +2065,22 @@
         <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2085,25 +2088,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2111,10 +2114,10 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2123,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2140,19 +2143,19 @@
         <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>16</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H58">
         <v>16</v>
@@ -2163,25 +2166,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2192,22 +2195,22 @@
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2215,10 +2218,10 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <v>16</v>
@@ -2230,10 +2233,10 @@
         <v>16</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2241,22 +2244,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2267,10 +2270,10 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2279,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2296,16 +2299,16 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <v>16</v>
@@ -2319,25 +2322,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2345,13 +2348,13 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2360,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2371,25 +2374,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>15</v>
       </c>
-      <c r="E67">
-        <v>16</v>
-      </c>
-      <c r="F67">
-        <v>15</v>
-      </c>
-      <c r="G67">
-        <v>8</v>
-      </c>
       <c r="H67">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2397,25 +2400,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>16</v>
       </c>
       <c r="F68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2423,25 +2426,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F69">
+        <v>16</v>
+      </c>
+      <c r="G69">
+        <v>16</v>
+      </c>
+      <c r="H69">
         <v>12</v>
-      </c>
-      <c r="G69">
-        <v>11</v>
-      </c>
-      <c r="H69">
-        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2449,22 +2452,22 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G70">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H70">
         <v>16</v>
@@ -2475,25 +2478,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2501,10 +2504,10 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2513,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2530,16 +2533,16 @@
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2553,13 +2556,13 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2579,25 +2582,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2605,25 +2608,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2631,25 +2634,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2657,25 +2660,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G78">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2686,22 +2689,22 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2709,24 +2712,50 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80">
+        <v>16</v>
+      </c>
+      <c r="H80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
         <v>87</v>
       </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>8</v>
       </c>
-      <c r="G80">
-        <v>16</v>
-      </c>
-      <c r="H80">
+      <c r="G81">
+        <v>16</v>
+      </c>
+      <c r="H81">
         <v>12</v>
       </c>
     </row>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="93">
   <si>
     <t>Nome</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Guerra -5</t>
+  </si>
+  <si>
+    <t>BieuL</t>
   </si>
   <si>
     <t>JOSA</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,25 +687,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -713,19 +716,19 @@
         <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -736,25 +739,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -765,22 +768,22 @@
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -788,25 +791,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -817,22 +820,22 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -840,25 +843,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -866,10 +869,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -881,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -895,22 +898,22 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
         <v>10</v>
-      </c>
-      <c r="F10">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -918,25 +921,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -944,16 +947,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -973,22 +976,22 @@
         <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -996,10 +999,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1014,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1022,25 +1025,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1051,22 +1054,22 @@
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1074,25 +1077,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1100,13 +1103,13 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1126,16 +1129,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1155,22 +1158,22 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1178,25 +1181,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1204,19 +1207,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1233,10 +1236,10 @@
         <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1256,25 +1259,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1282,25 +1285,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1311,13 +1314,13 @@
         <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1334,25 +1337,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>16</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1360,25 +1363,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1386,25 +1389,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>16</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1412,25 +1415,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1438,16 +1441,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1464,16 +1467,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1490,16 +1493,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1519,22 +1522,22 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1542,13 +1545,13 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>16</v>
@@ -1571,22 +1574,22 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <v>16</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1594,25 +1597,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1620,13 +1623,13 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1649,19 +1652,19 @@
         <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1672,25 +1675,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1701,22 +1704,22 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1724,25 +1727,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1753,22 +1756,22 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1776,16 +1779,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>16</v>
@@ -1794,7 +1797,7 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1805,22 +1808,22 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G45">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1828,25 +1831,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
         <v>14</v>
       </c>
-      <c r="G46">
-        <v>16</v>
-      </c>
       <c r="H46">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1857,19 +1860,19 @@
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H47">
         <v>16</v>
@@ -1880,22 +1883,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48">
         <v>16</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>16</v>
@@ -1906,25 +1909,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1932,16 +1935,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1958,25 +1961,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>16</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1984,16 +1987,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D52">
         <v>16</v>
       </c>
       <c r="E52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>16</v>
@@ -2002,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2010,16 +2013,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53">
         <v>16</v>
@@ -2028,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2036,25 +2039,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G54">
+        <v>16</v>
+      </c>
+      <c r="H54">
         <v>12</v>
-      </c>
-      <c r="H54">
-        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2062,25 +2065,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+      <c r="H55">
         <v>8</v>
-      </c>
-      <c r="E55">
-        <v>16</v>
-      </c>
-      <c r="F55">
-        <v>12</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2091,22 +2094,22 @@
         <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G56">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2114,25 +2117,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2140,10 +2143,10 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2152,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2169,19 +2172,19 @@
         <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>16</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>16</v>
@@ -2192,25 +2195,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2221,22 +2224,22 @@
         <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2244,10 +2247,10 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -2259,10 +2262,10 @@
         <v>16</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2270,22 +2273,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2296,10 +2299,10 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2308,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2325,16 +2328,16 @@
         <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>16</v>
@@ -2348,25 +2351,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2374,13 +2377,13 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2389,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2400,25 +2403,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>15</v>
       </c>
-      <c r="E68">
-        <v>16</v>
-      </c>
-      <c r="F68">
-        <v>15</v>
-      </c>
-      <c r="G68">
-        <v>8</v>
-      </c>
       <c r="H68">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2426,25 +2429,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>16</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2452,25 +2455,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F70">
+        <v>16</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70">
         <v>12</v>
-      </c>
-      <c r="G70">
-        <v>11</v>
-      </c>
-      <c r="H70">
-        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2478,22 +2481,22 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H71">
         <v>16</v>
@@ -2504,25 +2507,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2530,10 +2533,10 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2542,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2559,16 +2562,16 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2582,13 +2585,13 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2608,25 +2611,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2634,25 +2637,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2660,25 +2663,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2686,25 +2689,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2715,22 +2718,22 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H80">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2738,24 +2741,50 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81">
+        <v>16</v>
+      </c>
+      <c r="H81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="C81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>8</v>
       </c>
-      <c r="G81">
-        <v>16</v>
-      </c>
-      <c r="H81">
+      <c r="G82">
+        <v>16</v>
+      </c>
+      <c r="H82">
         <v>12</v>
       </c>
     </row>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
   <si>
     <t>Nome</t>
   </si>
@@ -184,6 +184,9 @@
     <t>isp</t>
   </si>
   <si>
+    <t>Poison</t>
+  </si>
+  <si>
     <t>5C4RF4C3</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
   </si>
   <si>
     <t>Barão Oliveira</t>
+  </si>
+  <si>
+    <t>Tanjo</t>
   </si>
   <si>
     <t>BRS⚔️ASHURA</t>
@@ -650,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -713,10 +719,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -739,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -765,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -791,10 +797,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -817,10 +823,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -843,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -869,10 +875,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -895,10 +901,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -921,10 +927,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -947,10 +953,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -973,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -999,10 +1005,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1025,10 +1031,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -1051,10 +1057,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1077,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1103,10 +1109,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1129,10 +1135,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -1155,10 +1161,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1181,10 +1187,10 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>14</v>
@@ -1207,10 +1213,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>16</v>
@@ -1233,10 +1239,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1259,10 +1265,10 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>16</v>
@@ -1285,10 +1291,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -1311,10 +1317,10 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1337,10 +1343,10 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -1363,10 +1369,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -1389,10 +1395,10 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -1415,10 +1421,10 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -1441,10 +1447,10 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1467,10 +1473,10 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1493,10 +1499,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1519,10 +1525,10 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1545,10 +1551,10 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -1571,10 +1577,10 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1597,10 +1603,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -1623,10 +1629,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -1649,10 +1655,10 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1675,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -1701,10 +1707,10 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1727,10 +1733,10 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D42">
         <v>16</v>
@@ -1753,10 +1759,10 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1779,10 +1785,10 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>16</v>
@@ -1805,10 +1811,10 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1831,10 +1837,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>16</v>
@@ -1857,10 +1863,10 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1883,10 +1889,10 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>16</v>
@@ -1909,10 +1915,10 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1935,10 +1941,10 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1964,13 +1970,13 @@
         <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1987,25 +1993,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>16</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2013,16 +2019,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>16</v>
@@ -2031,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2039,16 +2045,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>16</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <v>16</v>
@@ -2057,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2065,25 +2071,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
         <v>12</v>
-      </c>
-      <c r="H55">
-        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2091,25 +2097,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+      <c r="H56">
         <v>8</v>
-      </c>
-      <c r="E56">
-        <v>16</v>
-      </c>
-      <c r="F56">
-        <v>12</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2117,25 +2123,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2143,25 +2149,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2169,10 +2175,10 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2181,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2195,22 +2201,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>16</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H60">
         <v>16</v>
@@ -2221,25 +2227,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2247,25 +2253,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2273,10 +2279,10 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -2288,10 +2294,10 @@
         <v>16</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2299,22 +2305,22 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2325,10 +2331,10 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2337,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2351,25 +2357,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2377,25 +2383,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2403,25 +2409,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2432,22 +2438,22 @@
         <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2455,25 +2461,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2481,22 +2487,22 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G71">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H71">
         <v>16</v>
@@ -2507,13 +2513,13 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>16</v>
@@ -2525,7 +2531,7 @@
         <v>16</v>
       </c>
       <c r="H72">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2533,10 +2539,10 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2545,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2559,25 +2565,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2585,13 +2591,13 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2611,10 +2617,10 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2637,25 +2643,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2663,10 +2669,10 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2692,19 +2698,19 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E79">
         <v>16</v>
       </c>
       <c r="F79">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G79">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H79">
         <v>16</v>
@@ -2715,10 +2721,10 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2730,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2741,13 +2747,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <v>16</v>
@@ -2767,24 +2773,76 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>12</v>
+      </c>
+      <c r="H82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="C82" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>16</v>
+      </c>
+      <c r="F83">
+        <v>16</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>8</v>
       </c>
-      <c r="G82">
-        <v>16</v>
-      </c>
-      <c r="H82">
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
         <v>12</v>
       </c>
     </row>

--- a/data/relatorio_participacao_guerra.xlsx
+++ b/data/relatorio_participacao_guerra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
   <si>
     <t>Nome</t>
   </si>
@@ -40,253 +40,259 @@
     <t>Guerra -5</t>
   </si>
   <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>Yzzy the best ¿</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>sj pro</t>
+  </si>
+  <si>
+    <t>alm ícaro⁷⁷⁷</t>
+  </si>
+  <si>
+    <t>- ROJÎ</t>
+  </si>
+  <si>
+    <t>AlaN</t>
+  </si>
+  <si>
+    <t>SpartanBr444</t>
+  </si>
+  <si>
+    <t>BODOQUE</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>WILLIAN</t>
+  </si>
+  <si>
+    <t>GUARDIÃO FIRE</t>
+  </si>
+  <si>
+    <t>Meliodas</t>
+  </si>
+  <si>
+    <t>gabriel 3$</t>
+  </si>
+  <si>
+    <t>juliancho</t>
+  </si>
+  <si>
+    <t>Zenitsu愛</t>
+  </si>
+  <si>
+    <t>dogmal</t>
+  </si>
+  <si>
+    <t>danilo</t>
+  </si>
+  <si>
+    <t>WvCly</t>
+  </si>
+  <si>
+    <t>PedrinhoR14</t>
+  </si>
+  <si>
+    <t>5C4RF4C3</t>
+  </si>
+  <si>
+    <t>filho de duque</t>
+  </si>
+  <si>
+    <t>Pedro PH</t>
+  </si>
+  <si>
+    <t>luba</t>
+  </si>
+  <si>
+    <t>nivelador</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>ZackThunder</t>
+  </si>
+  <si>
+    <t>caioba_</t>
+  </si>
+  <si>
+    <t>Grimmer 狼</t>
+  </si>
+  <si>
+    <t>Barão Oliveira</t>
+  </si>
+  <si>
+    <t>BRS⚔️ASHURA</t>
+  </si>
+  <si>
+    <t>Kauan</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Frostz</t>
+  </si>
+  <si>
+    <t>Theus Carvalho</t>
+  </si>
+  <si>
+    <t>ryanhhzzyy</t>
+  </si>
+  <si>
+    <t>mini.peka</t>
+  </si>
+  <si>
+    <t>gnvx v</t>
+  </si>
+  <si>
+    <t>Felipee</t>
+  </si>
+  <si>
+    <t>kauansin777</t>
+  </si>
+  <si>
+    <t>Luiz Fernando™</t>
+  </si>
+  <si>
+    <t>JOSA</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>user_123</t>
+  </si>
+  <si>
+    <t>Chetto</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>juniorllou</t>
+  </si>
+  <si>
+    <t>mathi❄️</t>
+  </si>
+  <si>
+    <t>tavin</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Diih</t>
+  </si>
+  <si>
+    <t>Daniele❤</t>
+  </si>
+  <si>
+    <t>GabiMalvadeza</t>
+  </si>
+  <si>
+    <t>Teixeirazzqw</t>
+  </si>
+  <si>
+    <t>andrebts</t>
+  </si>
+  <si>
+    <t>RaiNascimento</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>StelaAby</t>
+  </si>
+  <si>
+    <t>OneDePrata</t>
+  </si>
+  <si>
+    <t>I'm inevitable</t>
+  </si>
+  <si>
+    <t>Sotto ツ</t>
+  </si>
+  <si>
+    <t>Gustavo Clash</t>
+  </si>
+  <si>
+    <t>Mila</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>Fafazin10</t>
+  </si>
+  <si>
+    <t>⭐O SENTINELA ⭐</t>
+  </si>
+  <si>
+    <t>domador de but</t>
+  </si>
+  <si>
+    <t>Dockz</t>
+  </si>
+  <si>
+    <t>polaris</t>
+  </si>
+  <si>
+    <t>AUGUSTO</t>
+  </si>
+  <si>
+    <t>Rodolfos</t>
+  </si>
+  <si>
     <t>BieuL</t>
   </si>
   <si>
-    <t>JOSA</t>
+    <t>51 é pinga</t>
+  </si>
+  <si>
+    <t>EDDIE</t>
+  </si>
+  <si>
+    <t>Tanjo</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>RobaFrag</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>gabiggoughost</t>
+  </si>
+  <si>
+    <t>O GUARDIÃO</t>
   </si>
   <si>
     <t>joão3:16</t>
   </si>
   <si>
-    <t>nova</t>
-  </si>
-  <si>
-    <t>Chetto</t>
-  </si>
-  <si>
-    <t>Yzzy the best ¿</t>
-  </si>
-  <si>
-    <t>Mila</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>sj pro</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>RaiNascimento</t>
-  </si>
-  <si>
-    <t>I'm inevitable</t>
-  </si>
-  <si>
-    <t>RobaFrag</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>alm ícaro⁷⁷⁷</t>
-  </si>
-  <si>
-    <t>Daniele❤</t>
-  </si>
-  <si>
-    <t>- ROJÎ</t>
-  </si>
-  <si>
-    <t>juniorllou</t>
-  </si>
-  <si>
-    <t>GabiMalvadeza</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Teixeirazzqw</t>
-  </si>
-  <si>
-    <t>SpartanBr444</t>
-  </si>
-  <si>
-    <t>Diih</t>
-  </si>
-  <si>
-    <t>tavin</t>
-  </si>
-  <si>
-    <t>BODOQUE</t>
-  </si>
-  <si>
-    <t>StelaAby</t>
-  </si>
-  <si>
-    <t>51 é pinga</t>
-  </si>
-  <si>
-    <t>Sotto ツ</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>WILLIAN</t>
-  </si>
-  <si>
-    <t>GUARDIÃO FIRE</t>
-  </si>
-  <si>
-    <t>Meliodas</t>
-  </si>
-  <si>
-    <t>EDDIE</t>
-  </si>
-  <si>
-    <t>gabriel 3$</t>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Asten Acady</t>
+  </si>
+  <si>
+    <t>DGJ-DAVI</t>
   </si>
   <si>
     <t>^_^^_^</t>
-  </si>
-  <si>
-    <t>Fafazin10</t>
-  </si>
-  <si>
-    <t>juliancho</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Zenitsu愛</t>
-  </si>
-  <si>
-    <t>⭐O SENTINELA ⭐</t>
-  </si>
-  <si>
-    <t>dogmal</t>
-  </si>
-  <si>
-    <t>domador de but</t>
-  </si>
-  <si>
-    <t>danilo</t>
-  </si>
-  <si>
-    <t>WvCly</t>
-  </si>
-  <si>
-    <t>PedrinhoR14</t>
-  </si>
-  <si>
-    <t>Dockz</t>
-  </si>
-  <si>
-    <t>isp</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>5C4RF4C3</t>
-  </si>
-  <si>
-    <t>filho de duque</t>
-  </si>
-  <si>
-    <t>Asten Acady</t>
-  </si>
-  <si>
-    <t>Pedro PH</t>
-  </si>
-  <si>
-    <t>DGJ-DAVI</t>
-  </si>
-  <si>
-    <t>luba</t>
-  </si>
-  <si>
-    <t>nivelador</t>
-  </si>
-  <si>
-    <t>gabiggoughost</t>
-  </si>
-  <si>
-    <t>user_123</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>ZackThunder</t>
-  </si>
-  <si>
-    <t>caioba_</t>
-  </si>
-  <si>
-    <t>O GUARDIÃO</t>
-  </si>
-  <si>
-    <t>Grimmer 狼</t>
-  </si>
-  <si>
-    <t>Barão Oliveira</t>
-  </si>
-  <si>
-    <t>Tanjo</t>
-  </si>
-  <si>
-    <t>BRS⚔️ASHURA</t>
-  </si>
-  <si>
-    <t>andrebts</t>
-  </si>
-  <si>
-    <t>Kauan</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>OneDePrata</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>Theus Carvalho</t>
-  </si>
-  <si>
-    <t>polaris</t>
-  </si>
-  <si>
-    <t>ryanhhzzyy</t>
-  </si>
-  <si>
-    <t>mini.peka</t>
-  </si>
-  <si>
-    <t>gnvx v</t>
-  </si>
-  <si>
-    <t>Felipee</t>
-  </si>
-  <si>
-    <t>mathi❄️</t>
-  </si>
-  <si>
-    <t>AUGUSTO</t>
-  </si>
-  <si>
-    <t>Rodolfos</t>
-  </si>
-  <si>
-    <t>kauansin777</t>
-  </si>
-  <si>
-    <t>Gustavo Clash</t>
-  </si>
-  <si>
-    <t>Luiz Fernando™</t>
   </si>
   <si>
     <t>Verificar</t>
@@ -656,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -719,25 +725,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -745,25 +751,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -771,10 +777,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -786,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -797,25 +803,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -823,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -849,25 +855,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -875,10 +881,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -901,10 +907,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -916,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -927,25 +933,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -953,16 +959,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -979,16 +985,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1005,25 +1011,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1031,13 +1037,13 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -1049,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1057,10 +1063,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1083,25 +1089,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1109,16 +1115,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1138,22 +1144,22 @@
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1161,25 +1167,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1190,22 +1196,22 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>13</v>
-      </c>
       <c r="G21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1213,19 +1219,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1239,16 +1245,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1265,25 +1271,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D24">
         <v>16</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1291,25 +1297,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>12</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>8</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1317,25 +1323,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1343,25 +1349,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1369,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -1384,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -1395,25 +1401,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1421,10 +1427,10 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -1436,10 +1442,10 @@
         <v>16</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1447,10 +1453,10 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1473,25 +1479,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1499,16 +1505,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1525,13 +1531,13 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1540,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1551,25 +1557,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1577,22 +1583,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H36">
         <v>16</v>
@@ -1603,25 +1609,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1629,19 +1635,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1655,13 +1661,13 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1681,22 +1687,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1707,22 +1713,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H41">
         <v>12</v>
@@ -1733,25 +1739,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>16</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1759,25 +1765,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1785,25 +1791,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1811,10 +1817,10 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1823,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1837,25 +1843,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1863,25 +1869,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47">
         <v>16</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1889,25 +1895,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1915,22 +1921,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E49">
         <v>16</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <v>16</v>
@@ -1941,25 +1947,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1967,22 +1973,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -1993,16 +1999,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2019,10 +2025,10 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <v>16</v>
@@ -2045,10 +2051,10 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -2057,13 +2063,13 @@
         <v>15</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2071,10 +2077,10 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>16</v>
@@ -2083,13 +2089,13 @@
         <v>16</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2097,25 +2103,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2123,25 +2129,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>16</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2149,25 +2155,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F58">
         <v>16</v>
       </c>
       <c r="G58">
+        <v>16</v>
+      </c>
+      <c r="H58">
         <v>14</v>
-      </c>
-      <c r="H58">
-        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2175,16 +2181,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2201,22 +2207,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H60">
         <v>16</v>
@@ -2227,25 +2233,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2253,25 +2259,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2279,10 +2285,10 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -2305,10 +2311,10 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64">
         <v>16</v>
@@ -2317,13 +2323,13 @@
         <v>16</v>
       </c>
       <c r="F64">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2331,25 +2337,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2357,13 +2363,13 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2383,19 +2389,19 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <v>16</v>
@@ -2409,10 +2415,10 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D68">
         <v>16</v>
@@ -2421,13 +2427,13 @@
         <v>16</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68">
         <v>16</v>
       </c>
       <c r="H68">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2435,25 +2441,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2461,25 +2467,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H70">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2490,22 +2496,22 @@
         <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2513,13 +2519,13 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <v>16</v>
@@ -2531,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2539,10 +2545,10 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2551,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2565,13 +2571,13 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>16</v>
@@ -2591,25 +2597,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2617,10 +2623,10 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2629,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2643,25 +2649,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D77">
         <v>16</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2669,25 +2675,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2695,22 +2701,22 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>16</v>
       </c>
       <c r="F79">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H79">
         <v>16</v>
@@ -2721,25 +2727,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2747,13 +2753,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>16</v>
@@ -2773,25 +2779,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G82">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2799,25 +2805,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2825,24 +2831,76 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>16</v>
+      </c>
+      <c r="F84">
+        <v>16</v>
+      </c>
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
         <v>91</v>
       </c>
-      <c r="C84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>16</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86">
         <v>8</v>
       </c>
-      <c r="G84">
-        <v>16</v>
-      </c>
-      <c r="H84">
+      <c r="F86">
+        <v>12</v>
+      </c>
+      <c r="G86">
+        <v>16</v>
+      </c>
+      <c r="H86">
         <v>12</v>
       </c>
     </row>
